--- a/src/main/resources/data/variables/Niguarda_v2.xlsx
+++ b/src/main/resources/data/variables/Niguarda_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics.csv" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">conceptPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodology</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -329,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,10 +363,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -377,6 +380,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,12 +437,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,6 +463,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,17 +495,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,67 +539,70 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -600,392 +620,423 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1003,306 +1054,330 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1321,130 +1396,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/variables/Niguarda_v2.xlsx
+++ b/src/main/resources/data/variables/Niguarda_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics.csv" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="101">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Patient ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/root/pet/pib</t>
   </si>
   <si>
     <t xml:space="preserve">SESSO</t>
@@ -332,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,12 +383,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,7 +434,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,10 +460,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,15 +490,15 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,46 +556,55 @@
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4"/>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4"/>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -623,15 +625,15 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +643,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -671,7 +673,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -689,17 +691,20 @@
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -707,58 +712,67 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4"/>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4"/>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -768,35 +782,41 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4"/>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4"/>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -806,16 +826,19 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4"/>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -825,16 +848,19 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="4"/>
+      <c r="J9" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -844,16 +870,19 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="4"/>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -863,16 +892,19 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="4"/>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
@@ -882,16 +914,19 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" s="4"/>
+      <c r="J12" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
@@ -901,16 +936,19 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="4"/>
+      <c r="J13" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -920,16 +958,19 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="4"/>
+      <c r="J14" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -939,16 +980,19 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="4"/>
+      <c r="J15" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -958,16 +1002,19 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" s="4"/>
+      <c r="J16" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -977,16 +1024,19 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4"/>
+      <c r="J17" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
@@ -996,16 +1046,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="4"/>
+      <c r="J18" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -1015,16 +1068,19 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="4"/>
+      <c r="J19" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -1034,9 +1090,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4"/>
+      <c r="J20" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1057,14 +1116,14 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1133,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1104,7 +1163,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1121,17 +1180,20 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1139,245 +1201,287 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9" t="s">
-        <v>70</v>
+      <c r="H6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="9" t="s">
-        <v>91</v>
+      <c r="H16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1398,17 +1502,17 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1522,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1448,14 +1552,14 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1463,19 +1567,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1483,19 +1590,22 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1503,37 +1613,46 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>99</v>
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
